--- a/jeczmien jary.xlsx
+++ b/jeczmien jary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="wyniki z roku 2023"/>
@@ -991,7 +991,7 @@
   </sheetPr>
   <dimension ref="A1:AE224"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21752,7 +21752,7 @@
   </sheetPr>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/jeczmien jary.xlsx
+++ b/jeczmien jary.xlsx
@@ -17489,7 +17489,7 @@
       </c>
       <c r="AE177" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="19.5">
       <c r="A178" s="3" t="s">
         <v>19</v>
       </c>
@@ -17582,7 +17582,7 @@
       </c>
       <c r="AE178" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="19.5">
       <c r="A179" s="3" t="s">
         <v>20</v>
       </c>
@@ -17675,7 +17675,7 @@
       </c>
       <c r="AE179" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="19.5">
       <c r="A180" s="3" t="s">
         <v>21</v>
       </c>
@@ -17768,7 +17768,7 @@
       </c>
       <c r="AE180" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="19.5">
       <c r="A181" s="3" t="s">
         <v>22</v>
       </c>
@@ -17861,7 +17861,7 @@
       </c>
       <c r="AE181" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="19.5">
       <c r="A182" s="3" t="s">
         <v>23</v>
       </c>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="AE182" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75" customFormat="1" s="8">
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="19.5" customFormat="1" s="8">
       <c r="A183" s="3" t="s">
         <v>24</v>
       </c>
@@ -18047,7 +18047,7 @@
       </c>
       <c r="AE183" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="19.5">
       <c r="A184" s="3" t="s">
         <v>25</v>
       </c>
@@ -18140,7 +18140,7 @@
       </c>
       <c r="AE184" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="19.5">
       <c r="A185" s="4" t="s">
         <v>26</v>
       </c>
@@ -18233,7 +18233,7 @@
       </c>
       <c r="AE185" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="19.5">
       <c r="A186" s="3" t="s">
         <v>27</v>
       </c>
@@ -18326,7 +18326,7 @@
       </c>
       <c r="AE186" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="19.5">
       <c r="A187" s="3" t="s">
         <v>28</v>
       </c>
@@ -18419,7 +18419,7 @@
       </c>
       <c r="AE187" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="19.5">
       <c r="A188" s="3" t="s">
         <v>29</v>
       </c>
@@ -18512,7 +18512,7 @@
       </c>
       <c r="AE188" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="19.5">
       <c r="A189" s="3" t="s">
         <v>30</v>
       </c>
@@ -18605,7 +18605,7 @@
       </c>
       <c r="AE189" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="19.5">
       <c r="A190" s="3" t="s">
         <v>31</v>
       </c>
@@ -18698,7 +18698,7 @@
       </c>
       <c r="AE190" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="19.5">
       <c r="A191" s="3" t="s">
         <v>32</v>
       </c>
@@ -18791,7 +18791,7 @@
       </c>
       <c r="AE191" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="19.5">
       <c r="A192" s="3" t="s">
         <v>33</v>
       </c>
@@ -18884,7 +18884,7 @@
       </c>
       <c r="AE192" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="19.5">
       <c r="A193" s="3" t="s">
         <v>34</v>
       </c>
@@ -18977,7 +18977,7 @@
       </c>
       <c r="AE193" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="19.5">
       <c r="A194" s="3" t="s">
         <v>35</v>
       </c>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="AE194" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="19.5">
       <c r="A195" s="3" t="s">
         <v>36</v>
       </c>
@@ -19163,7 +19163,7 @@
       </c>
       <c r="AE195" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="19.5">
       <c r="A196" s="3" t="s">
         <v>37</v>
       </c>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="AE196" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="19.5">
       <c r="A197" s="3" t="s">
         <v>39</v>
       </c>
@@ -19349,7 +19349,7 @@
       </c>
       <c r="AE197" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="19.5">
       <c r="A198" s="3" t="s">
         <v>40</v>
       </c>
@@ -19442,7 +19442,7 @@
       </c>
       <c r="AE198" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="19.5">
       <c r="A199" s="3" t="s">
         <v>41</v>
       </c>
@@ -19535,7 +19535,7 @@
       </c>
       <c r="AE199" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="19.5">
       <c r="A200" s="3" t="s">
         <v>42</v>
       </c>
